--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>265466.0724251073</v>
+        <v>279192.4305625255</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>512047.711698149</v>
+      </c>
+      <c r="C2" t="n">
         <v>512047.7116981491</v>
-      </c>
-      <c r="C2" t="n">
-        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>10804.15176641782</v>
+      </c>
+      <c r="C6" t="n">
         <v>10804.15176641788</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10804.15176641782</v>
       </c>
       <c r="D6" t="n">
         <v>10804.15176641776</v>
